--- a/data/income_statement/1digit/size/J_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/J_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>J-Information and communication</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>J-Information and communication</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1154 +841,1304 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1949690.43727</v>
+        <v>2074312.24813</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2072869.78012</v>
+        <v>2200013.69297</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2495859.96917</v>
+        <v>2623318.8469</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2737268.34965</v>
+        <v>2904482.101920001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2709922.65964</v>
+        <v>2923609.088180001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2931688.96312</v>
+        <v>3180748.35538</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3285777.92646</v>
+        <v>3655280.67876</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3884681.08474</v>
+        <v>4340739.77394</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3647326.49147</v>
+        <v>4187904.99712</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7620244.74668</v>
+        <v>8242010.03354</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8457716.16973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9535586.449900001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>10915607.147</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1819034.75002</v>
+        <v>1930432.40351</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1946567.7199</v>
+        <v>2056490.9417</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2343043.29592</v>
+        <v>2455965.21524</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2554529.09909</v>
+        <v>2703185.3781</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2513425.49598</v>
+        <v>2702190.82546</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2717653.854460001</v>
+        <v>2939303.04076</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3029095.62617</v>
+        <v>3357746.28331</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3598675.66192</v>
+        <v>4000227.38891</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3318710.76429</v>
+        <v>3799200.95168</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6793494.40092</v>
+        <v>7315187.457779999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7305362.051760001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8249313.40119</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9618658.896</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>79076.29971000001</v>
+        <v>84422.00581</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>78547.97414000001</v>
+        <v>86192.69191999998</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>98755.55671</v>
+        <v>103532.64627</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>124101.5629</v>
+        <v>132124.20851</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>130487.12734</v>
+        <v>142855.89235</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>137733.76577</v>
+        <v>155228.53643</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>172362.42251</v>
+        <v>190923.63377</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>170051.66052</v>
+        <v>200837.05412</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>211952.4427</v>
+        <v>241580.66091</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>600615.4062199999</v>
+        <v>671751.25298</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>910645.76165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>999068.75402</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>966605.507</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>51579.38754</v>
+        <v>59457.83880999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>47754.08608000001</v>
+        <v>57330.05935</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>54061.11654</v>
+        <v>63820.98539</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>58637.68766</v>
+        <v>69172.51531</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>66010.03632000001</v>
+        <v>78562.37036999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>76301.34289</v>
+        <v>86216.77819000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>84319.87778</v>
+        <v>106610.76168</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>115953.7623</v>
+        <v>139675.33091</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>116663.28448</v>
+        <v>147123.38453</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>226134.93954</v>
+        <v>255071.32278</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>241708.35632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>287204.29469</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>330342.744</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>26767.03074</v>
+        <v>33654.43251999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>29153.21219</v>
+        <v>32921.39462</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>31205.74192</v>
+        <v>34884.07316</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>39983.73631</v>
+        <v>44866.63011000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>41295.28636999999</v>
+        <v>48049.95696</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>38775.43726999999</v>
+        <v>44905.41977</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>39110.08655000001</v>
+        <v>48158.3713</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>43862.05710999999</v>
+        <v>55414.80411999999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>36642.34715</v>
+        <v>48459.89793</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>157652.84817</v>
+        <v>175459.17592</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>142067.31651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>165822.69613</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>346722.486</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>23353.34476</v>
+        <v>29653.77987</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>23661.02448</v>
+        <v>26665.60719</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>25589.22661</v>
+        <v>28523.05458</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>27855.40511999999</v>
+        <v>31740.72418</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>33205.78073</v>
+        <v>38907.32208999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>31191.5042</v>
+        <v>36099.97062000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>31200.52361</v>
+        <v>38537.7057</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>36451.84741999999</v>
+        <v>46539.2709</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>31147.38039</v>
+        <v>41851.67236</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>134865.31548</v>
+        <v>150707.96392</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>125131.36037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>147730.50566</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>326991.957</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2761.03161</v>
+        <v>3341.21293</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>4927.718910000001</v>
+        <v>5678.988090000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>4803.387199999999</v>
+        <v>5190.788640000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>11522.24491</v>
+        <v>12166.26565</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7085.964730000001</v>
+        <v>7989.26395</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>6009.54471</v>
+        <v>6898.56959</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>5503.30882</v>
+        <v>7061.37869</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4455.52792</v>
+        <v>5701.465279999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>4649.88117</v>
+        <v>5134.66229</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>18640.3328</v>
+        <v>19912.91779</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>13637.92793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13834.97821</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>13237.173</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>652.65437</v>
+        <v>659.43972</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>564.4687999999999</v>
+        <v>576.7993399999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>813.12811</v>
+        <v>1170.22994</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>606.0862799999999</v>
+        <v>959.64028</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1003.54091</v>
+        <v>1153.37092</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1574.38836</v>
+        <v>1906.87956</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2406.25412</v>
+        <v>2559.28691</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2954.68177</v>
+        <v>3174.067939999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>845.0855900000001</v>
+        <v>1473.56328</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4147.19989</v>
+        <v>4838.294210000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3298.028209999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4257.212260000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6493.356</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1922923.40653</v>
+        <v>2040657.81561</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2043716.56793</v>
+        <v>2167092.29835</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2464654.22725</v>
+        <v>2588434.77374</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2697284.61334</v>
+        <v>2859615.47181</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2668627.373269999</v>
+        <v>2875559.13122</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2892913.52585</v>
+        <v>3135842.93561</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3246667.83991</v>
+        <v>3607122.30746</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3840819.02763</v>
+        <v>4285324.969819999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3610684.144319999</v>
+        <v>4139445.09919</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7462591.898510001</v>
+        <v>8066550.85762</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8315648.85322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9369763.753770001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>10568884.661</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1405879.02565</v>
+        <v>1476712.35053</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1484083.36832</v>
+        <v>1553141.48925</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1775083.56036</v>
+        <v>1862768.29767</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1979171.90474</v>
+        <v>2065497.09715</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1847127.35192</v>
+        <v>1972207.09229</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1983277.11741</v>
+        <v>2136499.99573</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2225816.01925</v>
+        <v>2450492.2309</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2738109.28222</v>
+        <v>3011557.772940001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2400710.23214</v>
+        <v>2711993.42845</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4999696.53601</v>
+        <v>5366869.94664</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5632750.775119999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6317191.34797</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6984564.942</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>56330.95794</v>
+        <v>61882.39087</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>72162.80079000001</v>
+        <v>80009.69229000001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>76758.65358000001</v>
+        <v>82935.90367999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>64952.8675</v>
+        <v>73520.71883999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>68434.43548</v>
+        <v>79259.47166</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>76680.23483</v>
+        <v>87016.74133999999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>75220.31823999999</v>
+        <v>93792.76839000001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>81485.45857999999</v>
+        <v>101286.90995</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>97920.36197000001</v>
+        <v>114592.45314</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>169301.92559</v>
+        <v>187420.07109</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>228362.6593799999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>256966.91675</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>300791.504</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>853267.2753</v>
+        <v>874176.68216</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>855348.09852</v>
+        <v>875301.75547</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>998773.46887</v>
+        <v>1025982.28941</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1138394.3687</v>
+        <v>1161755.37035</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>933276.4444500001</v>
+        <v>968956.7941300001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>936661.8966399999</v>
+        <v>981863.94456</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1091187.00757</v>
+        <v>1165466.22591</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1463750.25491</v>
+        <v>1543261.02416</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1080720.7358</v>
+        <v>1171883.79533</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2237723.69364</v>
+        <v>2381673.21432</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2305210.89178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2613101.57416</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3194909.269</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>492694.56159</v>
+        <v>533912.22245</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>554763.1429200001</v>
+        <v>595597.57603</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>696424.1354</v>
+        <v>749918.44362</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>769463.7846899999</v>
+        <v>823799.7119899999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>842892.8396899999</v>
+        <v>916430.02827</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>957692.47982</v>
+        <v>1054829.03385</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1053279.11045</v>
+        <v>1181784.43824</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1182459.98102</v>
+        <v>1354477.044</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1208436.39753</v>
+        <v>1409765.62778</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2572557.860880001</v>
+        <v>2774715.44185</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3021070.65991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3366262.46299</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3424555.658</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3586.23082</v>
+        <v>6741.05505</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1809.32609</v>
+        <v>2232.465459999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3127.30251</v>
+        <v>3931.66096</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>6360.883849999999</v>
+        <v>6421.29597</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2523.6323</v>
+        <v>7560.79823</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>12242.50612</v>
+        <v>12790.27598</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>6129.582989999999</v>
+        <v>9448.798359999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>10413.58771</v>
+        <v>12532.79483</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>13632.73684</v>
+        <v>15751.5522</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>20113.0559</v>
+        <v>23061.21937999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>78106.56405000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>80860.39407000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>64308.511</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>517044.38088</v>
+        <v>563945.46508</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>559633.19961</v>
+        <v>613950.8091000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>689570.66689</v>
+        <v>725666.4760700001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>718112.7085999999</v>
+        <v>794118.37466</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>821500.0213500001</v>
+        <v>903352.0389299999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>909636.4084399999</v>
+        <v>999342.93988</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1020851.82066</v>
+        <v>1156630.07656</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1102709.74541</v>
+        <v>1273767.19688</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1209973.91218</v>
+        <v>1427451.67074</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2462895.362499999</v>
+        <v>2699680.91098</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2682898.0781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3052572.405799999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3584319.719</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>467771.23885</v>
+        <v>538359.2334500001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>507293.92373</v>
+        <v>595947.56603</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>619162.91176</v>
+        <v>714157.52629</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>667257.7568099998</v>
+        <v>778279.18256</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>764919.7777600001</v>
+        <v>878081.1784499998</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>862714.4079700001</v>
+        <v>1033879.17172</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>976499.1211199999</v>
+        <v>1175579.12168</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1093402.08097</v>
+        <v>1317548.66988</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1175306.24421</v>
+        <v>1470417.24912</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2127648.93634</v>
+        <v>2394205.687140001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2434788.48403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2813295.12204</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2942078.829</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>24194.43827</v>
+        <v>28624.97811</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>23250.95325</v>
+        <v>28827.58431</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>30167.01256</v>
+        <v>33581.57640999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>39925.30033999999</v>
+        <v>46204.28509</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>44441.37363</v>
+        <v>52691.44302000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>46956.46805</v>
+        <v>56762.31882</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>56534.53038</v>
+        <v>72867.02168000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>68312.18223000001</v>
+        <v>90983.10221000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>70860.64883999999</v>
+        <v>105454.81861</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>151513.12261</v>
+        <v>171390.27602</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>162178.61353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>199107.77003</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>227546.862</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>68390.64860999999</v>
+        <v>76602.10528999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>74637.46992</v>
+        <v>82401.91905</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>81897.67375</v>
+        <v>89963.069</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>87788.26399999998</v>
+        <v>102110.6329</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>96712.51101</v>
+        <v>111221.89516</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>105934.51694</v>
+        <v>123364.91702</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>110950.6642</v>
+        <v>130332.7922</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>123721.30502</v>
+        <v>147609.53914</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>145644.66736</v>
+        <v>174420.33044</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>299963.9340700001</v>
+        <v>324450.67182</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>310571.24951</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>347452.6224000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>349967.131</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>375186.1519699999</v>
+        <v>433132.15005</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>409405.50056</v>
+        <v>484718.06267</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>507098.22545</v>
+        <v>590612.8808800002</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>539544.19247</v>
+        <v>629964.26457</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>623765.89312</v>
+        <v>714167.8402699999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>709823.42298</v>
+        <v>853751.93588</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>809013.9265400001</v>
+        <v>972379.3078000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>901368.59372</v>
+        <v>1078956.02853</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>958800.92801</v>
+        <v>1190542.10007</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1676171.87966</v>
+        <v>1898364.7393</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1962038.62099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2266734.72961</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2364564.836</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>49273.14203</v>
+        <v>25586.23163</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>52339.27588</v>
+        <v>18003.24307</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>70407.75512999999</v>
+        <v>11508.94978</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>50854.95179</v>
+        <v>15839.1921</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>56580.24359000001</v>
+        <v>25270.86047999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>46922.00047000001</v>
+        <v>-34536.23184</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>44352.69954</v>
+        <v>-18949.04512000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>9307.664439999993</v>
+        <v>-43781.473</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>34667.66797</v>
+        <v>-42965.57838000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>335246.42616</v>
+        <v>305475.22384</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>248109.59407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>239277.28376</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>642240.89</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>25733.07547</v>
+        <v>1533790.19636</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>23068.38215</v>
+        <v>1463277.49315</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>30406.73071</v>
+        <v>1888825.93825</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>22730.60358</v>
+        <v>1643411.30152</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>30667.34819</v>
+        <v>862233.3375800002</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>31635.25693</v>
+        <v>262945.15544</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>42986.29932</v>
+        <v>669947.67988</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>47847.38981000001</v>
+        <v>613048.13555</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>50263.64345999999</v>
+        <v>556077.3770900001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>243146.41513</v>
+        <v>1734878.26405</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>165340.86667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>999296.2679700002</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3736847.32</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>259.1164899999999</v>
+        <v>195607.24067</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>170.08278</v>
+        <v>67959.38459999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>167.15115</v>
+        <v>57324.18952</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>132.4677</v>
+        <v>82081.17468</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>504.82609</v>
+        <v>108240.25025</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>102.80257</v>
+        <v>7467.93517</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>671.0984199999999</v>
+        <v>21692.74129</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>689.05035</v>
+        <v>38023.73516</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>110.65483</v>
+        <v>29019.0204</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>311.11697</v>
+        <v>30455.55257</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1419.7655</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>51665.38939</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>39722.596</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>29.22006</v>
+        <v>885155.12627</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>13.59164</v>
+        <v>962347.6163700001</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>49.37727</v>
+        <v>1368833.41324</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>27.35002</v>
+        <v>1112564.58739</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>8.19524</v>
+        <v>292789.19096</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>104.39238</v>
+        <v>48607.41241</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>28.79111</v>
+        <v>311491.2359</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>797.19467</v>
+        <v>18745.29723</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>119.29491</v>
+        <v>65009.35708</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>54.48504</v>
+        <v>41945.51435</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>102.26829</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>32708.84951</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2179915.793</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4461.125239999999</v>
+        <v>12443.4499</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4113.668490000001</v>
+        <v>23215.23187</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>5648.95682</v>
+        <v>47502.21707999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5098.38445</v>
+        <v>40386.95453</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5027.576629999999</v>
+        <v>29647.11097000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6473.383690000001</v>
+        <v>66821.55404</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6567.14442</v>
+        <v>57921.64455999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7165.03521</v>
+        <v>37861.73435</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8495.3326</v>
+        <v>59089.54362999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>33410.55897</v>
+        <v>98541.00679</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>35505.96029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>93836.51977</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>75087.923</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1803.55843</v>
+        <v>1843.04239</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1663.75761</v>
+        <v>1708.77049</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1120.58162</v>
+        <v>1470.7999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1065.42539</v>
+        <v>1122.55099</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1161.41832</v>
+        <v>1177.39911</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1308.20402</v>
+        <v>1978.89139</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1517.7985</v>
+        <v>22084.51256</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1275.72868</v>
+        <v>9218.61536</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1091.00683</v>
+        <v>1240.08605</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2265.6253</v>
+        <v>2607.87918</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3785.13959</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4319.936060000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>9896.788</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>658.0459999999999</v>
+        <v>315872.6212700001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>373.94541</v>
+        <v>317324.41218</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>494.19657</v>
+        <v>317431.30986</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>874.47111</v>
+        <v>314853.44329</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>849.11583</v>
+        <v>312658.20777</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>405.47207</v>
+        <v>22640.51492</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>215.24154</v>
+        <v>22475.95692</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>418.82467</v>
+        <v>312345.08454</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>674.3514699999999</v>
+        <v>21917.16163</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3635.90573</v>
+        <v>315402.42251</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1852.29124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>314901.08069</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>325334.985</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>699.93334</v>
+        <v>32530.20033</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>427.58665</v>
+        <v>945.2869799999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>550.72289</v>
+        <v>3226.89337</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>586.57448</v>
+        <v>1879.6595</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>514.53597</v>
+        <v>1748.41671</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1234.78593</v>
+        <v>2690.69536</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>594.6826600000001</v>
+        <v>9982.292390000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>657.9525500000001</v>
+        <v>5921.27351</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>910.7707899999999</v>
+        <v>58803.67344999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2271.66807</v>
+        <v>291653.9387500001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3575.46158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>131007.44289</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>47007.648</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>7422.28246</v>
+        <v>49813.60106000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>7492.16165</v>
+        <v>74554.65697</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>10319.15315</v>
+        <v>69690.18095000002</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>6472.835980000001</v>
+        <v>70310.90422999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>11444.55042</v>
+        <v>91212.82738000002</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>11483.26713</v>
+        <v>93225.84076000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>20866.96441</v>
+        <v>198786.21406</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>21312.03782</v>
+        <v>141622.09216</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>22897.89101</v>
+        <v>290310.15366</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>169198.38742</v>
+        <v>910914.0849000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>71340.3312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>318019.29161</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>982104.825</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>43.06905</v>
+        <v>71.39447</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>57.3509</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>42.28163000000001</v>
+        <v>298.19607</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>74.17043</v>
+        <v>213.19315</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>90.2423</v>
+        <v>352.22873</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>46.1367</v>
+        <v>224.37319</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>17.36309</v>
+        <v>351.20579</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>34.22713</v>
+        <v>73.31609</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>44.26358999999999</v>
+        <v>736.7280100000002</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1070.62415</v>
+        <v>1513.97541</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>51.96975</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>3283.89463</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>9280.809999999999</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>147.809</v>
+        <v>195.94378</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>60.38514</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>64.94617</v>
+        <v>75.05560000000001</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>5.188479999999999</v>
@@ -2096,304 +2147,344 @@
         <v>20.61349</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>318.28221</v>
+        <v>318.4322099999999</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>13.91403</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>8.23892</v>
+        <v>22.39999</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>34.91856</v>
+        <v>38.02092</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>92.01199</v>
+        <v>92.01199000000001</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>200.20813</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>256.657</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>10208.9154</v>
+        <v>40257.57622</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>8695.85188</v>
+        <v>15104.39765</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>11949.36344</v>
+        <v>22973.68266</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>8393.73554</v>
+        <v>19993.64528</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>11046.2739</v>
+        <v>24387.09221</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>10158.53023</v>
+        <v>18969.50599</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>12493.30114</v>
+        <v>25147.96238</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>15489.09981</v>
+        <v>49214.58715999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>15885.15887</v>
+        <v>29913.63226</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>30836.03149</v>
+        <v>41751.8776</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>47507.4711</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>49353.65529</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>68239.295</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>13358.54035</v>
+        <v>87665.94464999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>12626.95614</v>
+        <v>92517.33365</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>21010.04902</v>
+        <v>111238.06361</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>15941.45908</v>
+        <v>48734.60058999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>20989.88644</v>
+        <v>101309.32959</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>18274.10375</v>
+        <v>171950.26333</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>26150.58777</v>
+        <v>159406.99924</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>42508.71071</v>
+        <v>138681.73922</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>34179.15119999999</v>
+        <v>184735.17727</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>172251.88315</v>
+        <v>575796.1119700001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>115022.40997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>447103.67937</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>936617.245</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1427.57091</v>
+        <v>1469.77044</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1486.60031</v>
+        <v>1509.32888</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1521.09872</v>
+        <v>1581.74204</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1776.20757</v>
+        <v>1840.3178</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1640.25381</v>
+        <v>1795.01075</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1409.69385</v>
+        <v>1520.64316</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3886.22665</v>
+        <v>4749.17149</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4108.71872</v>
+        <v>4471.85448</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>3701.84511</v>
+        <v>4797.29484</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5253.763079999999</v>
+        <v>25613.74436</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5546.866230000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7058.24657</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>12811.771</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1045.39513</v>
+        <v>1728.25574</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1392.75353</v>
+        <v>1814.38791</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2354.54285</v>
+        <v>3122.15816</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>3666.96306</v>
+        <v>5653.11598</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3821.48306</v>
+        <v>12354.38197</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1726.63601</v>
+        <v>33818.86805</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1406.40368</v>
+        <v>2852.40895</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>9846.664409999999</v>
+        <v>11935.63618</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3776.54699</v>
+        <v>5445.82369</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>13456.16695</v>
+        <v>35994.33775</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>15657.60777</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>23540.33827</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>11374.815</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>152.03707</v>
+        <v>179.44387</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>63.95567</v>
+        <v>154.8778</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>60.16005999999999</v>
+        <v>76.4213</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>328.91075</v>
+        <v>1384.21089</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>72.64620000000001</v>
+        <v>502.6160499999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>78.39053</v>
+        <v>4489.87786</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>834.12541</v>
+        <v>1826.20994</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>5727.486619999999</v>
+        <v>6797.251969999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>28.47467</v>
+        <v>1145.9137</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>359.14639</v>
+        <v>4036.6732</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>714.8167900000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2513.85248</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3941.347</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>7845.405080000001</v>
+        <v>80498.76172000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>6958.10617</v>
+        <v>85250.15331000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>13260.60855</v>
+        <v>100309.31494</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>7800.528090000001</v>
+        <v>34777.08787</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>11790.18653</v>
+        <v>77053.71940999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>11316.02863</v>
+        <v>76446.22036000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>17593.48273</v>
+        <v>140177.94888</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>19532.73346</v>
+        <v>108007.77167</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>22449.94329</v>
+        <v>163395.36049</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>143346.51592</v>
+        <v>497270.31522</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>63902.95912</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>380306.86922</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>867706.258</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>483.6543</v>
+        <v>489.21053</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>15.4992</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>12.92152</v>
+        <v>97.65867999999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>17.26338</v>
+        <v>44.14247</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>35.55808</v>
+        <v>181.09817</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>25.21275</v>
+        <v>44.15781</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0.7201400000000001</v>
+        <v>30.37081</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>11.33695</v>
+        <v>46.43178</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>12.3681</v>
+        <v>60.3744</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>784.66817</v>
+        <v>784.76642</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>169.17081</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>540.04865</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>89.648</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>25.46917</v>
+        <v>34.7912</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>51.76124</v>
@@ -2411,13 +2502,13 @@
         <v>2.09842</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>15.48115</v>
+        <v>15.4812</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.00259</v>
+        <v>0.17866</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>4.598850000000001</v>
+        <v>4.59899</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>28.15776</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>60.9065</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>306.66</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2379.008690000001</v>
+        <v>3265.71115</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2658.28002</v>
+        <v>3721.32531</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3800.54004</v>
+        <v>6050.591210000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2332.99011</v>
+        <v>5017.129460000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3628.95275</v>
+        <v>9421.69723</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3716.04356</v>
+        <v>55628.39767</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2414.14801</v>
+        <v>9755.407969999998</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3281.76796</v>
+        <v>7422.61448</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4205.37419</v>
+        <v>9885.811159999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>9023.464880000001</v>
+        <v>12068.11726</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>28970.08275</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>33083.41768</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>40386.746</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>12932.01739</v>
+        <v>465858.5080600001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>9564.379969999998</v>
+        <v>397366.61148</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>14536.10786</v>
+        <v>661633.7766700002</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>13936.43754</v>
+        <v>536997.26188</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>14443.46859</v>
+        <v>59025.1584</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>15434.38852</v>
+        <v>73667.5735</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>17770.26949999999</v>
+        <v>76447.39878</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>19966.15321</v>
+        <v>62544.86478</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>23172.94208</v>
+        <v>108602.02755</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>66675.26938999999</v>
+        <v>151067.51986</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>83612.78682000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>161811.21495</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>148131.518</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>12457.30079</v>
+        <v>44889.74997</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>9108.85303</v>
+        <v>31814.67762</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>14341.3844</v>
+        <v>54516.44227000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>13496.22351</v>
+        <v>45572.12119000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>14019.20569</v>
+        <v>58275.38633</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>14579.16794</v>
+        <v>70555.84963</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>17423.96327</v>
+        <v>74786.90445000002</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>19542.60752</v>
+        <v>60855.37650000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>22653.47179</v>
+        <v>107163.29476</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>64939.11915999999</v>
+        <v>143923.43774</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>81846.83500000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>155356.26483</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>144467.824</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>474.7166</v>
+        <v>420968.75809</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>455.52694</v>
+        <v>365551.93386</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>194.72346</v>
+        <v>607117.3343999998</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>440.21403</v>
+        <v>491425.14069</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>424.2628999999999</v>
+        <v>749.77207</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>855.2205799999999</v>
+        <v>3111.723870000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>346.30623</v>
+        <v>1660.49433</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>423.54569</v>
+        <v>1689.48828</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>519.4702900000001</v>
+        <v>1438.73279</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1736.15023</v>
+        <v>7144.082120000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1765.95182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>6454.95012</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3663.694</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>48715.65976</v>
+        <v>1005851.97528</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>53216.32191999999</v>
+        <v>991396.79109</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>65268.32896000001</v>
+        <v>1127463.04775</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>43707.65875</v>
+        <v>1073518.63115</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>51814.23675</v>
+        <v>727169.7100699999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>44848.76513</v>
+        <v>-17208.91323000002</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>43418.14159000001</v>
+        <v>415144.23674</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-5319.809669999998</v>
+        <v>368040.05855</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>27579.21815</v>
+        <v>219774.5938900001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>339465.68875</v>
+        <v>1313489.85606</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>214815.26395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>629658.6574100001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3294339.447</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>14415.65066</v>
+        <v>20561.03242</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>13356.88447</v>
+        <v>30012.21765</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>15528.07708</v>
+        <v>339804.5689600001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>20306.21154</v>
+        <v>30034.50909</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>18341.61763</v>
+        <v>78159.99718000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>23740.94984</v>
+        <v>90202.79887000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>26113.84535000001</v>
+        <v>100780.32733</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>32032.27915</v>
+        <v>52994.97938</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>33801.19127</v>
+        <v>88207.66062</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>57159.4796</v>
+        <v>85274.57546999998</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>87518.07354</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>116858.95339</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>199075.474</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>526.51557</v>
+        <v>673.0163800000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>567.31088</v>
+        <v>749.6170699999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>541.2827199999999</v>
+        <v>667.88276</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>881.0315899999999</v>
+        <v>1860.50462</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>702.98816</v>
+        <v>750.8204599999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>901.93934</v>
+        <v>1075.19626</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1379.40801</v>
+        <v>1623.30886</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>933.8184299999998</v>
+        <v>1518.74789</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>585.06953</v>
+        <v>1164.9155</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>817.7071200000001</v>
+        <v>902.4385500000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3481.99942</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3943.21886</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2861.081</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>13889.13509</v>
+        <v>19888.01604</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>12789.57359</v>
+        <v>29262.60058</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>14986.79436</v>
+        <v>339136.6862000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>19425.17995</v>
+        <v>28174.00447</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>17638.62947</v>
+        <v>77409.17672</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>22839.0105</v>
+        <v>89127.60261000002</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>24734.43734</v>
+        <v>99157.01847</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>31098.46072</v>
+        <v>51476.23149000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>33216.12174</v>
+        <v>87042.74512000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>56341.77248</v>
+        <v>84372.13691999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>84036.07411999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>112915.73453</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>196214.393</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>14572.47253</v>
+        <v>20468.04687</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>20191.56075</v>
+        <v>38780.35569999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>193175.47687</v>
+        <v>1267467.66777</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>25712.3275</v>
+        <v>49951.60928</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>23945.83455</v>
+        <v>221765.09431</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>131134.65473</v>
+        <v>208385.97966</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>38157.63</v>
+        <v>61219.83216</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>164912.8004</v>
+        <v>231425.3297</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>54307.76869</v>
+        <v>77145.73090000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>295021.4210200001</v>
+        <v>338981.3743</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>111392.80188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>190193.30437</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>238211.092</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>129.68362</v>
+        <v>295.6324</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>299.64736</v>
+        <v>301.94096</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>847.1736999999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>681.26644</v>
+        <v>1710.13422</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>525.89881</v>
+        <v>531.09551</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>936.48334</v>
+        <v>936.48335</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2286.70159</v>
+        <v>2371.11074</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>922.42548</v>
+        <v>924.67548</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>796.1871900000001</v>
+        <v>1110.28484</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>632.3743900000001</v>
+        <v>632.75235</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>936.68373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2307.93603</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1577.896</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1256.9487</v>
+        <v>2243.52855</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2730.15748</v>
+        <v>4409.99467</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>10222.86407</v>
+        <v>17315.27096</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3356.80218</v>
+        <v>3674.28527</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1782.53658</v>
+        <v>5015.649439999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2615.36864</v>
+        <v>3182.56718</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1800.66343</v>
+        <v>6236.69706</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7011.967449999999</v>
+        <v>10630.24415</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2773.25708</v>
+        <v>4687.083909999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4235.41815</v>
+        <v>5710.438360000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4100.94932</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>10393.26643</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>36258.004</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>13185.84021</v>
+        <v>17928.88592</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>17161.75591</v>
+        <v>34068.42007</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>182105.4391</v>
+        <v>1249305.22311</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>21674.25888</v>
+        <v>44567.18979</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>21637.39916</v>
+        <v>216218.3493600001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>127582.80275</v>
+        <v>204266.92913</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>34070.26498000001</v>
+        <v>52612.02436</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>156978.40747</v>
+        <v>219870.41007</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>50738.32442</v>
+        <v>71348.36215</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>290153.62848</v>
+        <v>332638.18359</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>106355.16883</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>177492.10191</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>200375.192</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>48558.83789</v>
+        <v>1005944.96083</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>46381.64564</v>
+        <v>982628.6530400001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-112379.07083</v>
+        <v>199799.9489399999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>38301.54279</v>
+        <v>1053601.53096</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>46210.01983</v>
+        <v>583564.6129399999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-62544.93976000001</v>
+        <v>-135392.09402</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>31374.35694000001</v>
+        <v>454704.73191</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-138200.33092</v>
+        <v>189609.70823</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>7072.64073</v>
+        <v>230836.52361</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>101603.74733</v>
+        <v>1059783.05723</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>190940.53561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>556324.3064300001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3255203.829</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>19418.71652</v>
+        <v>21526.04371</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>22634.624</v>
+        <v>29598.84267</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>27812.93113</v>
+        <v>31737.63898</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>28316.51123</v>
+        <v>33203.01109</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>30825.18121</v>
+        <v>44958.08131999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>35393.42552</v>
+        <v>49892.72319</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>39978.37016</v>
+        <v>72573.05678</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>41047.66582</v>
+        <v>56815.83746</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>42984.16377</v>
+        <v>76754.26402000002</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>113109.65737</v>
+        <v>226417.49747</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>120817.01408</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>150296.131</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>263644.295</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>29140.12137</v>
+        <v>984418.91712</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>23747.02164</v>
+        <v>953029.81037</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-140192.00196</v>
+        <v>168062.30996</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>9985.031559999998</v>
+        <v>1020398.51987</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>15384.83862000001</v>
+        <v>538606.53162</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-97938.36528000001</v>
+        <v>-185284.81721</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-8604.013219999997</v>
+        <v>382131.67513</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-179247.99674</v>
+        <v>132793.87077</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-35911.52304</v>
+        <v>154082.25959</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-11505.91004000001</v>
+        <v>833365.5597600001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>70123.52152999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>406028.17543</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2991559.534</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>9049</v>
+        <v>9428</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>9637</v>
+        <v>10084</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>10294</v>
+        <v>10761</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>10505</v>
+        <v>11082</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>11471</v>
+        <v>12190</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>12248</v>
+        <v>13059</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>12832</v>
+        <v>13908</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>13640</v>
+        <v>15053</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>14493</v>
+        <v>16009</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>17228</v>
+        <v>18567</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>18204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>20496</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>22937</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>